--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="160" documentId="13_ncr:1_{FB7167A7-99A0-4ECB-920F-FCD92E008D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1690261-7645-4A25-8150-6018CE2A893A}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{FB7167A7-99A0-4ECB-920F-FCD92E008D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48A4484-8098-4F9B-A04A-09F5EBB3EC6B}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="226">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -85,12 +85,6 @@
     <t>JLC Subtotal</t>
   </si>
   <si>
-    <t>Other Subtotal</t>
-  </si>
-  <si>
-    <t>Unit Subtotal</t>
-  </si>
-  <si>
     <t>U1</t>
   </si>
   <si>
@@ -713,6 +707,15 @@
   </si>
   <si>
     <t>https://www.aliexpress.com/item/1005006254225186.html</t>
+  </si>
+  <si>
+    <t>Boards Total (USD, no VAT)</t>
+  </si>
+  <si>
+    <t>Boards Total (GBP, VAT)</t>
+  </si>
+  <si>
+    <t>Boards Ordered</t>
   </si>
 </sst>
 </file>
@@ -992,7 +995,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1011,6 +1013,7 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
@@ -1366,10 +1369,10 @@
     <tableColumn id="5" xr3:uid="{AA370C7A-B275-4F4A-8EBA-42D32DD66BEA}" name="Supplier" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{64BA8FDB-4E0C-4EE9-839D-D745472F8C6B}" name="Unit Cost" dataDxfId="13"/>
     <tableColumn id="7" xr3:uid="{FB66949B-406C-4FE8-8656-2FDB34A9207D}" name="Quantity Required" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="10">
+    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="11">
       <calculatedColumnFormula>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="11"/>
+    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1663,8 +1666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1689,7 +1692,7 @@
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -1706,25 +1709,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H2" s="1">
         <v>1.7399999999999999E-2</v>
@@ -1739,117 +1742,116 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H3" s="1">
         <v>1.7399999999999999E-2</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" s="1">
-        <f>'Flight Version'!J2*1.25</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1">
         <v>4.3E-3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>16</v>
+        <v>223</v>
       </c>
       <c r="M4" s="1">
-        <f>M2+M3</f>
-        <v>0.49670000000000014</v>
+        <v>46.13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H5" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="L5" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="M5" s="1">
+        <f>(M4*1.2)/1.25</f>
+        <v>44.284800000000004</v>
+      </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H6" s="1">
         <v>8.0000000000000002E-3</v>
@@ -1857,77 +1859,90 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H7" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="L7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H8" s="1">
         <v>8.0000000000000002E-3</v>
       </c>
+      <c r="L8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="1">
+        <f>M5/M7</f>
+        <v>2.9523200000000003</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H9" s="1">
         <v>4.3E-3</v>
@@ -1935,25 +1950,25 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H10" s="1">
         <v>2.0999999999999999E-3</v>
@@ -1961,25 +1976,25 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H11" s="1">
         <v>4.3E-3</v>
@@ -1987,25 +2002,25 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H12" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2013,25 +2028,25 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H13" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2039,25 +2054,25 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H14" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2065,25 +2080,25 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C15" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H15" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2091,25 +2106,25 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H16" s="1">
         <v>4.3E-3</v>
@@ -2117,25 +2132,25 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H17" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2143,25 +2158,25 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H18" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2169,25 +2184,25 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H19" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2195,25 +2210,25 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H20" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2221,25 +2236,25 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H21" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2247,25 +2262,25 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H22" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2273,25 +2288,25 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H23" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2299,25 +2314,25 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H24" s="1">
         <v>5.4999999999999997E-3</v>
@@ -2325,25 +2340,25 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H25" s="1">
         <v>6.8999999999999999E-3</v>
@@ -2351,25 +2366,25 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C26" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H26" s="1">
         <v>6.8999999999999999E-3</v>
@@ -2377,25 +2392,25 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H27" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2403,25 +2418,25 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C28" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H28" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2429,25 +2444,25 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H29" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2455,25 +2470,25 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C30" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H30" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2481,25 +2496,25 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H31" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2507,25 +2522,25 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H32" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2533,25 +2548,25 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H33" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2559,25 +2574,25 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H34" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2585,25 +2600,25 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H35" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2611,25 +2626,25 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C36" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H36" s="1">
         <v>2.0999999999999999E-3</v>
@@ -2637,25 +2652,25 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H37" s="1">
         <v>1.7399999999999999E-2</v>
@@ -2663,25 +2678,25 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H38" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2689,25 +2704,25 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D39" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H39" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2715,25 +2730,25 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H40" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2741,25 +2756,25 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H41" s="1">
         <v>8.0000000000000002E-3</v>
@@ -2767,25 +2782,25 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H42" s="1">
         <v>4.2200000000000001E-2</v>
@@ -2793,25 +2808,25 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H43" s="1">
         <v>4.2200000000000001E-2</v>
@@ -2819,25 +2834,25 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H44" s="1">
         <v>9.7000000000000003E-3</v>
@@ -2845,25 +2860,25 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G45" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F45" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H45" s="1">
         <v>1.32E-2</v>
@@ -2871,25 +2886,25 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H46" s="1">
         <v>1.5599999999999999E-2</v>
@@ -2897,25 +2912,25 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H47" s="1">
         <v>1.18E-2</v>
@@ -2923,25 +2938,25 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H48" s="1">
         <v>8.9999999999999998E-4</v>
@@ -2949,25 +2964,25 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1">
         <v>8.9999999999999998E-4</v>
@@ -2975,25 +2990,25 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3001,25 +3016,25 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H51" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3027,25 +3042,25 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H52" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3053,25 +3068,25 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H53" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3079,25 +3094,25 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H54" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3105,25 +3120,25 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H55" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3131,25 +3146,25 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H56" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3157,25 +3172,25 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H57" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3183,25 +3198,25 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H58" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3209,25 +3224,25 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H59" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3235,25 +3250,25 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H60" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3261,25 +3276,25 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H61" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3287,25 +3302,25 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H62" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3313,25 +3328,25 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H63" s="1">
         <v>1E-3</v>
@@ -3339,25 +3354,25 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D64" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>159</v>
-      </c>
       <c r="G64" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H64" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3365,25 +3380,25 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E65" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G65" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H65" s="1">
         <v>1.32E-2</v>
@@ -3391,25 +3406,25 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E66" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G66" s="1" t="s">
         <v>146</v>
-      </c>
-      <c r="F66" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>148</v>
       </c>
       <c r="H66" s="1">
         <v>1.32E-2</v>
@@ -3417,25 +3432,25 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D67" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F67" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E67" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="F67" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="G67" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H67" s="1">
         <v>1.26E-2</v>
@@ -3443,25 +3458,25 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H68" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3469,25 +3484,25 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H69" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3495,25 +3510,25 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D70" s="1">
         <v>51</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="H70" s="1">
         <v>8.9999999999999998E-4</v>
@@ -3616,7 +3631,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3648,33 +3663,33 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>3.05</v>
@@ -3687,10 +3702,10 @@
         <v>3.05</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table13[Optional], "n", Table13[Subtotal])</f>
@@ -3702,13 +3717,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -3724,10 +3739,10 @@
         <v>2.9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table13[Optional], "y", Table13[Subtotal])</f>
@@ -3736,16 +3751,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -3761,27 +3776,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L4" s="1">
-        <v>2.2200000000000002</v>
+        <f>JLC!M8</f>
+        <v>2.9523200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -3797,21 +3813,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -3827,28 +3843,28 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>50.839999999999996</v>
+        <v>51.572319999999998</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -3864,10 +3880,10 @@
         <v>0.65</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -3875,19 +3891,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>193</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>26.31</v>
@@ -3900,21 +3916,21 @@
         <v>26.31</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -3930,28 +3946,28 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L9" s="1">
         <f>L6*L7</f>
-        <v>50.839999999999996</v>
+        <v>51.572319999999998</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>198</v>
-      </c>
       <c r="C10" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
@@ -3967,21 +3983,21 @@
         <v>3.61</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="D11" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
@@ -3997,21 +4013,21 @@
         <v>5.08</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>204</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
@@ -4027,24 +4043,24 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F13" s="1">
         <v>0.92</v>
@@ -4057,7 +4073,7 @@
         <v>0.92</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -4137,7 +4153,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:G9"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4169,33 +4185,33 @@
         <v>7</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="F2" s="1">
         <v>3.05</v>
@@ -4208,10 +4224,10 @@
         <v>3.05</v>
       </c>
       <c r="I2" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table134[Optional], "n", Table134[Subtotal])</f>
@@ -4223,13 +4239,13 @@
         <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>11</v>
@@ -4245,10 +4261,10 @@
         <v>2.9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table134[Optional], "y", Table134[Subtotal])</f>
@@ -4257,16 +4273,16 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>11</v>
@@ -4282,27 +4298,28 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="L4" s="1">
-        <v>2.2200000000000002</v>
+        <f>JLC!M8</f>
+        <v>2.9523200000000003</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>32</v>
-      </c>
       <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>11</v>
@@ -4318,21 +4335,21 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>38</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>11</v>
@@ -4348,28 +4365,28 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>15.720000000000002</v>
+        <v>16.45232</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -4385,10 +4402,10 @@
         <v>0.65</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="L7" s="1">
         <v>6</v>
@@ -4396,19 +4413,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>221</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
         <v>4.8600000000000003</v>
@@ -4421,24 +4438,24 @@
         <v>4.8600000000000003</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>224</v>
-      </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F9" s="1">
         <v>0.92</v>
@@ -4451,14 +4468,14 @@
         <v>0.92</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="L9" s="1">
         <f>L7*(L6+L4)</f>
-        <v>107.64000000000001</v>
+        <v>116.42784</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">

--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive - Imperial College London\Uni\ICLR\Github\art-wally\wally\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="174" documentId="13_ncr:1_{FB7167A7-99A0-4ECB-920F-FCD92E008D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B48A4484-8098-4F9B-A04A-09F5EBB3EC6B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="228">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -716,6 +716,12 @@
   </si>
   <si>
     <t>Boards Ordered</t>
+  </si>
+  <si>
+    <t>USB4105-GF-A-120</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/GCT/USB4105-GF-A-120?qs=QNEnbhJQKva%252Bjxw%2FpEjDhQ%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -3631,7 +3637,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3709,7 +3715,7 @@
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table13[Optional], "n", Table13[Subtotal])</f>
-        <v>7.7200000000000006</v>
+        <v>7.73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3850,7 +3856,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>51.572319999999998</v>
+        <v>51.582319999999996</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3861,23 +3867,23 @@
         <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>187</v>
+        <v>226</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>188</v>
+        <v>227</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F7" s="1">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="G7" s="6">
         <v>1</v>
       </c>
       <c r="H7" s="6">
         <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>208</v>
@@ -3953,7 +3959,7 @@
       </c>
       <c r="L9" s="1">
         <f>L6*L7</f>
-        <v>51.572319999999998</v>
+        <v>51.582319999999996</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">

--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive - Imperial College London\Uni\ICLR\Github\art-wally\wally\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427C3278-0177-424B-B4BA-93DAC00F1B59}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="233">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -722,6 +722,21 @@
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/GCT/USB4105-GF-A-120?qs=QNEnbhJQKva%252Bjxw%2FpEjDhQ%3D%3D</t>
+  </si>
+  <si>
+    <t>S1</t>
+  </si>
+  <si>
+    <t>S2</t>
+  </si>
+  <si>
+    <t>Switch</t>
+  </si>
+  <si>
+    <t>C318884</t>
+  </si>
+  <si>
+    <t>TS-1187A-B-A-B</t>
   </si>
 </sst>
 </file>
@@ -1342,8 +1357,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H70" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:H70" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:H72" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
@@ -1362,8 +1377,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:I21" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
-  <autoFilter ref="A1:I21" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:I13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="A1:I13" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
@@ -1672,8 +1687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView zoomScale="110" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView topLeftCell="A22" zoomScale="110" workbookViewId="0">
+      <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1743,7 +1758,7 @@
       </c>
       <c r="M2" s="1">
         <f>SUM(Table1[Cost])</f>
-        <v>0.49670000000000014</v>
+        <v>0.52950000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -3541,12 +3556,50 @@
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="4"/>
-      <c r="E71" s="2"/>
+      <c r="A71" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="4"/>
-      <c r="E72" s="2"/>
+      <c r="A72" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H72" s="1">
+        <v>1.6400000000000001E-2</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
@@ -3636,8 +3689,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EFD0D0-6010-4DE2-A740-5FED5A866A4A}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3698,14 +3751,15 @@
         <v>19</v>
       </c>
       <c r="F2" s="1">
-        <v>3.05</v>
+        <f>31.82/9</f>
+        <v>3.5355555555555558</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="6">
         <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>3.05</v>
+        <v>3.5355555555555558</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>208</v>
@@ -3715,7 +3769,7 @@
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table13[Optional], "n", Table13[Subtotal])</f>
-        <v>7.73</v>
+        <v>8.2155555555555573</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -3752,7 +3806,7 @@
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table13[Optional], "y", Table13[Subtotal])</f>
-        <v>40.9</v>
+        <v>43.87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -3856,7 +3910,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>51.582319999999996</v>
+        <v>55.037875555555559</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -3912,14 +3966,14 @@
         <v>19</v>
       </c>
       <c r="F8" s="1">
-        <v>26.31</v>
+        <v>29.33</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6">
         <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>26.31</v>
+        <v>29.33</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>146</v>
@@ -3959,7 +4013,7 @@
       </c>
       <c r="L9" s="1">
         <f>L6*L7</f>
-        <v>51.582319999999996</v>
+        <v>55.037875555555559</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -4069,14 +4123,14 @@
         <v>19</v>
       </c>
       <c r="F13" s="1">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="G13" s="6">
         <v>1</v>
       </c>
       <c r="H13" s="6">
         <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="I13" s="6" t="s">
         <v>146</v>
@@ -4084,66 +4138,42 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
-      <c r="H14" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
-      <c r="H15" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="6"/>
-      <c r="H17" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
-      <c r="H18" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="6"/>
-      <c r="H19" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
-      <c r="H20" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="6"/>
-      <c r="H21" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>0</v>
-      </c>
+      <c r="H21" s="6"/>
       <c r="I21" s="6"/>
     </row>
   </sheetData>
@@ -4158,8 +4188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29745244-347C-4E0C-82C7-873EDA6D4584}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4220,14 +4250,15 @@
         <v>19</v>
       </c>
       <c r="F2" s="1">
-        <v>3.05</v>
+        <f>31.82/9</f>
+        <v>3.5355555555555558</v>
       </c>
       <c r="G2" s="6">
         <v>1</v>
       </c>
       <c r="H2" s="6">
         <f>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</f>
-        <v>3.05</v>
+        <v>3.5355555555555558</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>208</v>
@@ -4237,7 +4268,7 @@
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table134[Optional], "n", Table134[Subtotal])</f>
-        <v>12.580000000000002</v>
+        <v>10.125555555555557</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -4274,7 +4305,7 @@
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table134[Optional], "y", Table134[Subtotal])</f>
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -4378,7 +4409,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>16.45232</v>
+        <v>13.947875555555557</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
@@ -4434,14 +4465,14 @@
         <v>19</v>
       </c>
       <c r="F8" s="1">
-        <v>4.8600000000000003</v>
+        <v>1.92</v>
       </c>
       <c r="G8" s="6">
         <v>1</v>
       </c>
       <c r="H8" s="6">
         <f>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</f>
-        <v>4.8600000000000003</v>
+        <v>1.92</v>
       </c>
       <c r="I8" s="6" t="s">
         <v>208</v>
@@ -4464,14 +4495,14 @@
         <v>19</v>
       </c>
       <c r="F9" s="1">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="G9" s="6">
         <v>1</v>
       </c>
       <c r="H9" s="6">
         <f>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</f>
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="I9" s="6" t="s">
         <v>146</v>
@@ -4481,7 +4512,7 @@
       </c>
       <c r="L9" s="1">
         <f>L7*(L6+L4)</f>
-        <v>116.42784</v>
+        <v>101.40117333333333</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">

--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{427C3278-0177-424B-B4BA-93DAC00F1B59}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E432ECAE-784C-409B-9AC5-6A87B1DCF816}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
     <sheet name="Flight Version" sheetId="2" r:id="rId2"/>
     <sheet name="Ground Version" sheetId="3" r:id="rId3"/>
+    <sheet name="JLC_Extended" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="249">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -737,6 +738,54 @@
   </si>
   <si>
     <t>TS-1187A-B-A-B</t>
+  </si>
+  <si>
+    <t>Part Subtotal</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>J5</t>
+  </si>
+  <si>
+    <t>USB C Connector</t>
+  </si>
+  <si>
+    <t>C3039324</t>
+  </si>
+  <si>
+    <t>MC-107DB</t>
+  </si>
+  <si>
+    <t>Boost converter</t>
+  </si>
+  <si>
+    <t>TLV61048DBVR</t>
+  </si>
+  <si>
+    <t>C2861467</t>
+  </si>
+  <si>
+    <t>Sensors</t>
+  </si>
+  <si>
+    <t>C5368700</t>
+  </si>
+  <si>
+    <t>Baro</t>
+  </si>
+  <si>
+    <t>DPS368</t>
+  </si>
+  <si>
+    <t>C3232508</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>C15578</t>
   </si>
 </sst>
 </file>
@@ -817,7 +866,171 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="38">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1357,66 +1570,88 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="A1:H72" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="24"/>
-    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="35"/>
+    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="32"/>
     <tableColumn id="3" xr3:uid="{E962FE16-E8B6-45B0-A890-E5B3DFBB18B2}" name="JLC Name"/>
-    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:I13" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:I13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A1:I13" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8119D89E-A3EC-4D25-9A33-22E21D26F7FD}" name="PCB Ident" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{F761C4B6-755A-4384-B088-D38BFCC162C6}" name="Desc" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{8119D89E-A3EC-4D25-9A33-22E21D26F7FD}" name="PCB Ident" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{F761C4B6-755A-4384-B088-D38BFCC162C6}" name="Desc" dataDxfId="25"/>
     <tableColumn id="3" xr3:uid="{CE48B791-2D4F-4219-9048-5825EE503154}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{35CE205C-CB5E-41F1-89C9-7410BA00354C}" name="Link" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{AA370C7A-B275-4F4A-8EBA-42D32DD66BEA}" name="Supplier" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{64BA8FDB-4E0C-4EE9-839D-D745472F8C6B}" name="Unit Cost" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{FB66949B-406C-4FE8-8656-2FDB34A9207D}" name="Quantity Required" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{35CE205C-CB5E-41F1-89C9-7410BA00354C}" name="Link" dataDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{AA370C7A-B275-4F4A-8EBA-42D32DD66BEA}" name="Supplier" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{64BA8FDB-4E0C-4EE9-839D-D745472F8C6B}" name="Unit Cost" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{FB66949B-406C-4FE8-8656-2FDB34A9207D}" name="Quantity Required" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="20">
       <calculatedColumnFormula>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I9" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{34DDBA3C-E659-4D7E-9E14-47B72222CCDB}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="10">
       <calculatedColumnFormula>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E906BF4-6045-4661-B987-A0C5673272A3}" name="Table15" displayName="Table15" ref="A1:H6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:H6" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
+    <sortCondition ref="A1:A64"/>
+  </sortState>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{3DCEAD43-18B7-4F49-849D-6EF185847D39}" name="PCB Ident" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{964837BD-97E4-4937-A131-4D989F5E0477}" name="Block" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3B3B4A6A-52E4-4D6D-946E-EB2ADEB4DA98}" name="Description" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A3DC31E9-D5DB-46A8-991E-5B586775F257}" name="Value" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{E45B8C85-EC40-4FB7-97C2-C2551E9D6E72}" name="JLC Name"/>
+    <tableColumn id="4" xr3:uid="{62DEBCF0-ADBC-4F79-8D70-279EC5CD1E80}" name="JLC Code" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2F88679B-56FF-4224-83D3-A055215006AA}" name="Unit Cost" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02553574-6C52-4D8B-A054-D75F996064BE}" name="Total Cost" dataDxfId="0">
+      <calculatedColumnFormula>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3690,7 +3925,7 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4188,8 +4423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29745244-347C-4E0C-82C7-873EDA6D4584}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -4582,4 +4817,575 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532D146-F0B6-4208-8100-C1AE2FB6041F}">
+  <dimension ref="A1:M95"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.16830000000000001</v>
+      </c>
+      <c r="H2" s="1">
+        <f>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</f>
+        <v>5.5244999999999997</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="1">
+        <f>SUM(Table15[Total Cost])</f>
+        <v>91.119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="H3" s="1">
+        <f>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</f>
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1.4025000000000001</v>
+      </c>
+      <c r="H4" s="1">
+        <f>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</f>
+        <v>24.037500000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C5" t="s">
+        <v>244</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3.1455000000000002</v>
+      </c>
+      <c r="H5" s="1">
+        <f>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</f>
+        <v>50.182500000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.15429999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <f>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</f>
+        <v>5.3144999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="C7"/>
+      <c r="D7" s="4"/>
+      <c r="L7" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="M7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="C8"/>
+      <c r="D8" s="4"/>
+      <c r="L8" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M8" s="1">
+        <f>M2/M7</f>
+        <v>6.0746000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="4"/>
+      <c r="C9"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="C11"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="4"/>
+      <c r="C12"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="4"/>
+      <c r="C13"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="C15"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="4"/>
+      <c r="C16"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="C17"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="C19"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="4"/>
+      <c r="C20"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="4"/>
+      <c r="C21"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="4"/>
+      <c r="C22"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="4"/>
+      <c r="C23"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="4"/>
+      <c r="C24"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="4"/>
+      <c r="C25"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="C26"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="C27"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="4"/>
+      <c r="C28"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="C29"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="4"/>
+      <c r="C30"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="4"/>
+      <c r="C31"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="C32"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="4"/>
+      <c r="C33"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="4"/>
+      <c r="C34"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="C35"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="C36"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="C37"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="C38"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="C39"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="C40"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="C41"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="4"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="4"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="4"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="4"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="4"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="4"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="4"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="4"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="4"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="4"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="4"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="4"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="4"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="4"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="4"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="4"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="4"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="4"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="5"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4"/>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4"/>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4"/>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4"/>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4"/>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4"/>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4"/>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4"/>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4"/>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4"/>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4"/>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4"/>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4"/>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive - Imperial College London\Uni\ICLR\Github\art-wally\wally\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="87" documentId="13_ncr:1_{0A2F9D2A-3804-453C-AC90-709163FD27FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E432ECAE-784C-409B-9AC5-6A87B1DCF816}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C1505-CA49-4799-BD5E-D7F3470043E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="250">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -786,6 +786,9 @@
   </si>
   <si>
     <t>C15578</t>
+  </si>
+  <si>
+    <t>added to order</t>
   </si>
 </sst>
 </file>
@@ -866,7 +869,25 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1570,86 +1591,87 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
   <autoFilter ref="A1:H72" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="35"/>
-    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="33"/>
-    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="36"/>
+    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="34"/>
+    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="33"/>
     <tableColumn id="3" xr3:uid="{E962FE16-E8B6-45B0-A890-E5B3DFBB18B2}" name="JLC Name"/>
-    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:I13" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
-  <autoFilter ref="A1:I13" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:J13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:J13" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{8119D89E-A3EC-4D25-9A33-22E21D26F7FD}" name="PCB Ident" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{F761C4B6-755A-4384-B088-D38BFCC162C6}" name="Desc" dataDxfId="25"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{8119D89E-A3EC-4D25-9A33-22E21D26F7FD}" name="PCB Ident" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{F761C4B6-755A-4384-B088-D38BFCC162C6}" name="Desc" dataDxfId="26"/>
     <tableColumn id="3" xr3:uid="{CE48B791-2D4F-4219-9048-5825EE503154}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{35CE205C-CB5E-41F1-89C9-7410BA00354C}" name="Link" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{AA370C7A-B275-4F4A-8EBA-42D32DD66BEA}" name="Supplier" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{64BA8FDB-4E0C-4EE9-839D-D745472F8C6B}" name="Unit Cost" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{FB66949B-406C-4FE8-8656-2FDB34A9207D}" name="Quantity Required" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="20">
+    <tableColumn id="4" xr3:uid="{35CE205C-CB5E-41F1-89C9-7410BA00354C}" name="Link" dataDxfId="25"/>
+    <tableColumn id="5" xr3:uid="{AA370C7A-B275-4F4A-8EBA-42D32DD66BEA}" name="Supplier" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{64BA8FDB-4E0C-4EE9-839D-D745472F8C6B}" name="Unit Cost" dataDxfId="23"/>
+    <tableColumn id="7" xr3:uid="{FB66949B-406C-4FE8-8656-2FDB34A9207D}" name="Quantity Required" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{C55FCA74-A0F3-4403-8F4B-F3ED8CD4E537}" name="Subtotal" dataDxfId="21">
       <calculatedColumnFormula>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="20"/>
+    <tableColumn id="10" xr3:uid="{3B22AF4B-9967-47BF-A906-4B999B170FEB}" name="added to order" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:I9" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{34DDBA3C-E659-4D7E-9E14-47B72222CCDB}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="13"/>
-    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="12"/>
-    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="11"/>
-    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="10">
+    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="11">
       <calculatedColumnFormula>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="9"/>
+    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E906BF4-6045-4661-B987-A0C5673272A3}" name="Table15" displayName="Table15" ref="A1:H6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E906BF4-6045-4661-B987-A0C5673272A3}" name="Table15" displayName="Table15" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H6" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3DCEAD43-18B7-4F49-849D-6EF185847D39}" name="PCB Ident" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{964837BD-97E4-4937-A131-4D989F5E0477}" name="Block" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{3B3B4A6A-52E4-4D6D-946E-EB2ADEB4DA98}" name="Description" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{A3DC31E9-D5DB-46A8-991E-5B586775F257}" name="Value" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{3DCEAD43-18B7-4F49-849D-6EF185847D39}" name="PCB Ident" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{964837BD-97E4-4937-A131-4D989F5E0477}" name="Block" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{3B3B4A6A-52E4-4D6D-946E-EB2ADEB4DA98}" name="Description" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{A3DC31E9-D5DB-46A8-991E-5B586775F257}" name="Value" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{E45B8C85-EC40-4FB7-97C2-C2551E9D6E72}" name="JLC Name"/>
-    <tableColumn id="4" xr3:uid="{62DEBCF0-ADBC-4F79-8D70-279EC5CD1E80}" name="JLC Code" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{2F88679B-56FF-4224-83D3-A055215006AA}" name="Unit Cost" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{02553574-6C52-4D8B-A054-D75F996064BE}" name="Total Cost" dataDxfId="0">
+    <tableColumn id="4" xr3:uid="{62DEBCF0-ADBC-4F79-8D70-279EC5CD1E80}" name="JLC Code" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{2F88679B-56FF-4224-83D3-A055215006AA}" name="Unit Cost" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{02553574-6C52-4D8B-A054-D75F996064BE}" name="Total Cost" dataDxfId="1">
       <calculatedColumnFormula>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1926,18 +1948,18 @@
       <selection activeCell="K77" sqref="K77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.77734375" style="1"/>
-    <col min="12" max="12" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="1" max="2" width="11.53125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.796875" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="11.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1963,7 +1985,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -1996,7 +2018,7 @@
         <v>0.52950000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -2022,7 +2044,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -2054,7 +2076,7 @@
         <v>46.13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2087,7 +2109,7 @@
         <v>44.284800000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -2113,7 +2135,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -2145,7 +2167,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -2178,7 +2200,7 @@
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -2204,7 +2226,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
@@ -2230,7 +2252,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -2256,7 +2278,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -2282,7 +2304,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2308,7 +2330,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -2334,7 +2356,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2360,7 +2382,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2386,7 +2408,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2412,7 +2434,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -2438,7 +2460,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2464,7 +2486,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2490,7 +2512,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -2516,7 +2538,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -2542,7 +2564,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -2568,7 +2590,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -2594,7 +2616,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -2620,7 +2642,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -2646,7 +2668,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -2672,7 +2694,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2698,7 +2720,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -2724,7 +2746,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
@@ -2750,7 +2772,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -2776,7 +2798,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -2802,7 +2824,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -2828,7 +2850,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -2854,7 +2876,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2880,7 +2902,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2906,7 +2928,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
@@ -2932,7 +2954,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
@@ -2958,7 +2980,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
@@ -2984,7 +3006,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
@@ -3010,7 +3032,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
@@ -3036,7 +3058,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
@@ -3062,7 +3084,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
@@ -3088,7 +3110,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -3114,7 +3136,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
@@ -3140,7 +3162,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
@@ -3166,7 +3188,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A47" s="4" t="s">
         <v>73</v>
       </c>
@@ -3192,7 +3214,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A48" s="4" t="s">
         <v>91</v>
       </c>
@@ -3218,7 +3240,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -3244,7 +3266,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -3270,7 +3292,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
@@ -3296,7 +3318,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A52" s="4" t="s">
         <v>95</v>
       </c>
@@ -3322,7 +3344,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -3348,7 +3370,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A54" s="4" t="s">
         <v>97</v>
       </c>
@@ -3374,7 +3396,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A55" s="4" t="s">
         <v>98</v>
       </c>
@@ -3400,7 +3422,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
@@ -3426,7 +3448,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A57" s="4" t="s">
         <v>74</v>
       </c>
@@ -3452,7 +3474,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A59" s="4" t="s">
         <v>76</v>
       </c>
@@ -3504,7 +3526,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
@@ -3530,7 +3552,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
@@ -3556,7 +3578,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A62" s="4" t="s">
         <v>79</v>
       </c>
@@ -3582,7 +3604,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -3608,7 +3630,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
@@ -3634,7 +3656,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A65" s="5" t="s">
         <v>170</v>
       </c>
@@ -3660,7 +3682,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A66" s="5" t="s">
         <v>171</v>
       </c>
@@ -3686,7 +3708,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A67" s="5" t="s">
         <v>172</v>
       </c>
@@ -3712,7 +3734,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A68" s="5" t="s">
         <v>173</v>
       </c>
@@ -3738,7 +3760,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A69" s="5" t="s">
         <v>174</v>
       </c>
@@ -3764,7 +3786,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A70" s="5" t="s">
         <v>175</v>
       </c>
@@ -3790,7 +3812,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A71" s="5" t="s">
         <v>228</v>
       </c>
@@ -3813,7 +3835,7 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A72" s="5" t="s">
         <v>229</v>
       </c>
@@ -3836,78 +3858,78 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A73" s="4"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A74" s="4"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A75" s="4"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A76" s="4"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A77" s="4"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
     </row>
   </sheetData>
@@ -3925,22 +3947,22 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="26.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3968,8 +3990,11 @@
       <c r="I1" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J1" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -3999,6 +4024,9 @@
       <c r="I2" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J2" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K2" s="1" t="s">
         <v>210</v>
       </c>
@@ -4007,7 +4035,7 @@
         <v>8.2155555555555573</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4036,6 +4064,9 @@
       <c r="I3" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J3" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K3" s="1" t="s">
         <v>211</v>
       </c>
@@ -4044,7 +4075,7 @@
         <v>43.87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4073,6 +4104,9 @@
       <c r="I4" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K4" s="1" t="s">
         <v>214</v>
       </c>
@@ -4081,7 +4115,7 @@
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4110,8 +4144,11 @@
       <c r="I5" s="6" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J5" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4140,6 +4177,9 @@
       <c r="I6" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K6" s="1" t="s">
         <v>212</v>
       </c>
@@ -4148,7 +4188,7 @@
         <v>55.037875555555559</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4177,6 +4217,9 @@
       <c r="I7" s="6" t="s">
         <v>208</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K7" s="1" t="s">
         <v>213</v>
       </c>
@@ -4184,7 +4227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -4213,8 +4256,11 @@
       <c r="I8" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>192</v>
       </c>
@@ -4243,6 +4289,9 @@
       <c r="I9" s="6" t="s">
         <v>146</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>146</v>
+      </c>
       <c r="K9" s="1" t="s">
         <v>215</v>
       </c>
@@ -4251,7 +4300,7 @@
         <v>55.037875555555559</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A10" s="1" t="s">
         <v>194</v>
       </c>
@@ -4280,8 +4329,11 @@
       <c r="I10" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J10" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A11" s="1" t="s">
         <v>197</v>
       </c>
@@ -4310,8 +4362,11 @@
       <c r="I11" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J11" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A12" s="1" t="s">
         <v>200</v>
       </c>
@@ -4340,8 +4395,11 @@
       <c r="I12" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J12" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A13" s="1" t="s">
         <v>220</v>
       </c>
@@ -4370,43 +4428,46 @@
       <c r="I13" s="6" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J13" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4423,23 +4484,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29745244-347C-4E0C-82C7-873EDA6D4584}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.77734375" style="1"/>
-    <col min="11" max="11" width="24.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.77734375" style="1"/>
+    <col min="3" max="3" width="26.86328125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.19921875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.796875" style="1"/>
+    <col min="11" max="11" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +4529,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4506,7 +4567,7 @@
         <v>10.125555555555557</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4543,7 +4604,7 @@
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4580,7 +4641,7 @@
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4610,7 +4671,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4647,7 +4708,7 @@
         <v>13.947875555555557</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4683,7 +4744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A8" s="1" t="s">
         <v>216</v>
       </c>
@@ -4713,7 +4774,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A9" s="1" t="s">
         <v>220</v>
       </c>
@@ -4750,63 +4811,63 @@
         <v>101.40117333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
       <c r="C12" s="3"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.5">
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4823,24 +4884,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3532D146-F0B6-4208-8100-C1AE2FB6041F}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+    <sheetView zoomScale="110" workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="2" width="11.5546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.53125" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.796875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.53125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.77734375" style="1"/>
-    <col min="12" max="12" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.77734375" style="1"/>
+    <col min="9" max="11" width="8.796875" style="1"/>
+    <col min="12" max="12" width="15.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4866,7 +4927,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A2" s="4" t="s">
         <v>235</v>
       </c>
@@ -4898,7 +4959,7 @@
         <v>91.119</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
@@ -4923,7 +4984,7 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A4" s="4" t="s">
         <v>194</v>
       </c>
@@ -4948,7 +5009,7 @@
         <v>24.037500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A5" s="4" t="s">
         <v>192</v>
       </c>
@@ -4973,7 +5034,7 @@
         <v>50.182500000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
@@ -4998,7 +5059,7 @@
         <v>5.3144999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="C7"/>
       <c r="D7" s="4"/>
@@ -5009,7 +5070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
       <c r="C8"/>
       <c r="D8" s="4"/>
@@ -5021,364 +5082,364 @@
         <v>6.0746000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
       <c r="C9"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
       <c r="C10"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
       <c r="C11"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
       <c r="C12"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A13" s="4"/>
       <c r="C13"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A14" s="4"/>
       <c r="C14"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="C15"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>
       <c r="C16"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A17" s="4"/>
       <c r="C17"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A18" s="4"/>
       <c r="C18"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A19" s="4"/>
       <c r="C19"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A20" s="4"/>
       <c r="C20"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A21" s="4"/>
       <c r="C21"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A22" s="4"/>
       <c r="C22"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A23" s="4"/>
       <c r="C23"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A24" s="4"/>
       <c r="C24"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A25" s="4"/>
       <c r="C25"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A26" s="4"/>
       <c r="C26"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A27" s="4"/>
       <c r="C27"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A28" s="4"/>
       <c r="C28"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A29" s="4"/>
       <c r="C29"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A30" s="4"/>
       <c r="C30"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A31" s="4"/>
       <c r="C31"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A32" s="4"/>
       <c r="C32"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A33" s="4"/>
       <c r="C33"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A34" s="4"/>
       <c r="C34"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A35" s="4"/>
       <c r="C35"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A36" s="4"/>
       <c r="C36"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A37" s="4"/>
       <c r="C37"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A38" s="4"/>
       <c r="C38"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A39" s="4"/>
       <c r="C39"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A40" s="4"/>
       <c r="C40"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A41" s="4"/>
       <c r="C41"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A68" s="5"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A69" s="5"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A70" s="5"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A71" s="5"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A72" s="5"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A73" s="4"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A74" s="4"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A75" s="4"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A76" s="4"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A77" s="4"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
       <c r="A95" s="4"/>
     </row>
   </sheetData>

--- a/wally/wally_bom.xlsx
+++ b/wally/wally_bom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shrey\OneDrive - Imperial College London\Uni\ICLR\Github\art-wally\wally\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://imperiallondon-my.sharepoint.com/personal/sb2919_ic_ac_uk/Documents/Uni/ICLR/Github/art-wally/wally/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C1505-CA49-4799-BD5E-D7F3470043E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="13_ncr:1_{F90C1505-CA49-4799-BD5E-D7F3470043E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA540293-D16E-432B-ACEA-CAA7CF6FD7AC}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="JLC" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="261">
   <si>
     <t>PCB Ident</t>
   </si>
@@ -635,36 +635,15 @@
     <t>IC6</t>
   </si>
   <si>
-    <t>Thermocouple Amp</t>
-  </si>
-  <si>
-    <t>MCP96L00T</t>
-  </si>
-  <si>
     <t>IC7</t>
   </si>
   <si>
-    <t>Magnetometer</t>
-  </si>
-  <si>
-    <t>MLX90935KLW-BBA</t>
-  </si>
-  <si>
     <t>DPS368XTSA1</t>
   </si>
   <si>
     <t>https://www.mouser.co.uk/ProductDetail/Infineon-Technologies/DPS368XTSA1?qs=l7cgNqFNU1issZx9oeCNag%3D%3D</t>
   </si>
   <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Bosch-Sensortec/BMI323?qs=By6Nw2ByBD3%2FE1v0UqNQPQ%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Microchip-Technology/MCP96L00T-E-MX?qs=lc2O%252BfHJPVbfgU9%252BbwIcfg%3D%3D</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Melexis/MLX90395KLW-BBA-101-SP?qs=7MVldsJ5UazJuLePkmPDSw%3D%3D</t>
-  </si>
-  <si>
     <t>n</t>
   </si>
   <si>
@@ -789,6 +768,60 @@
   </si>
   <si>
     <t>added to order</t>
+  </si>
+  <si>
+    <t>0402 Code</t>
+  </si>
+  <si>
+    <t>IC9</t>
+  </si>
+  <si>
+    <t>Env sensor</t>
+  </si>
+  <si>
+    <t>BME680</t>
+  </si>
+  <si>
+    <t>IC8</t>
+  </si>
+  <si>
+    <t>Light sensor</t>
+  </si>
+  <si>
+    <t>APSD-9523</t>
+  </si>
+  <si>
+    <t>Mag</t>
+  </si>
+  <si>
+    <t>MMC5983</t>
+  </si>
+  <si>
+    <t>LSM6DSV32</t>
+  </si>
+  <si>
+    <t>AC1</t>
+  </si>
+  <si>
+    <t>Accelerometer</t>
+  </si>
+  <si>
+    <t>H3LIS331</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Bosch-Sensortec/BME680?qs=v271MhAjFHjo0yA%2FC4OnDQ%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Broadcom-Avago/APDS-9253-001?qs=T3oQrply3y9os9rwnJ1p%252Bg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/MEMSIC/MMC5983MA?qs=B6kkDfuK7%2FD5qasHMdEt2g%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/LSM6DSV32XTR?qs=HoCaDK9Nz5d%252BGVBpjxkjlg%3D%3D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/STMicroelectronics/H3LIS331DLTR?qs=TAo1I7FhABsAZFqkqNUSRA%3D%3D</t>
   </si>
 </sst>
 </file>
@@ -857,7 +890,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -865,29 +898,12 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="39">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="40">
     <dxf>
       <font>
         <b val="0"/>
@@ -1268,6 +1284,24 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
@@ -1539,6 +1573,24 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
@@ -1591,28 +1643,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:H72" totalsRowShown="0" headerRowDxfId="38" dataDxfId="37">
-  <autoFilter ref="A1:H72" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}" name="Table1" displayName="Table1" ref="A1:I72" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A1:I72" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="36"/>
-    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="34"/>
-    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="33"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{B4FAA6AB-83B4-4C84-8804-F1AC5BACE4BB}" name="PCB Ident" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{0CFD2752-679C-477B-B126-B8120AC92495}" name="Block" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{1B58CE16-B0B1-4054-B4AF-AABCB45AE617}" name="Description" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{7D3B067D-44F4-4C72-ADF9-31B9997A6B54}" name="Value" dataDxfId="34"/>
     <tableColumn id="3" xr3:uid="{E962FE16-E8B6-45B0-A890-E5B3DFBB18B2}" name="JLC Name"/>
-    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{990A84E6-FEB3-4F0C-B071-D44C86705F1B}" name="JLC Code" dataDxfId="33"/>
+    <tableColumn id="5" xr3:uid="{D9AAA942-DED1-4B6A-855E-8BAC2D202809}" name="Basic" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{FF6A9334-BA71-474D-878B-F76ED55006AB}" name="Cost" dataDxfId="31"/>
+    <tableColumn id="9" xr3:uid="{B8F9609F-9E1F-4339-A19F-0146F90FFD01}" name="0402 Code" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:J13" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="A1:J13" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{EF0408F7-95F1-4593-9198-21390B37E860}" name="Table13" displayName="Table13" ref="A1:J15" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:J15" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
@@ -1628,50 +1681,50 @@
       <calculatedColumnFormula>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="9" xr3:uid="{F58C808B-95D8-4F6F-821C-13D89945154E}" name="Optional" dataDxfId="20"/>
-    <tableColumn id="10" xr3:uid="{3B22AF4B-9967-47BF-A906-4B999B170FEB}" name="added to order" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{3B22AF4B-9967-47BF-A906-4B999B170FEB}" name="added to order" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DB20F3B0-E283-47AE-9F45-268AC5732428}" name="Table134" displayName="Table134" ref="A1:I9" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A1:I9" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F20">
     <sortCondition descending="1" ref="F1:F21"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{DE40C196-1816-4153-9F34-D382EEFCE06A}" name="PCB Ident" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{E59EA504-7694-4995-8D14-D0FBF8538661}" name="Desc" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{34DDBA3C-E659-4D7E-9E14-47B72222CCDB}" name="Name"/>
-    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="13"/>
-    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="12"/>
-    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="11">
+    <tableColumn id="4" xr3:uid="{D9FD9762-62C7-4777-809F-CAC42C4F9D0D}" name="Link" dataDxfId="14"/>
+    <tableColumn id="5" xr3:uid="{0882C8E6-70D8-4738-85A4-7F86562CAC87}" name="Supplier" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{ECE4524A-5C8C-4420-8EDC-6E51DCF46995}" name="Unit Cost" dataDxfId="12"/>
+    <tableColumn id="7" xr3:uid="{0C03F5D1-C222-4DF0-9C3F-504F6D2016BC}" name="Quantity Required" dataDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{7E4B3953-3B35-4E1F-A108-99E91A1DE96D}" name="Subtotal" dataDxfId="10">
       <calculatedColumnFormula>Table134[[#This Row],[Unit Cost]]*Table134[[#This Row],[Quantity Required]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="10"/>
+    <tableColumn id="9" xr3:uid="{433BBB6D-7DC6-49F5-A23E-3EFE9F82A3FB}" name="Optional" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E906BF4-6045-4661-B987-A0C5673272A3}" name="Table15" displayName="Table15" ref="A1:H6" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4E906BF4-6045-4661-B987-A0C5673272A3}" name="Table15" displayName="Table15" ref="A1:H6" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:H6" xr:uid="{2A0602E7-1A25-42E9-BF44-F09CA170C8FC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H64">
     <sortCondition ref="A1:A64"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{3DCEAD43-18B7-4F49-849D-6EF185847D39}" name="PCB Ident" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{964837BD-97E4-4937-A131-4D989F5E0477}" name="Block" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3B3B4A6A-52E4-4D6D-946E-EB2ADEB4DA98}" name="Description" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{A3DC31E9-D5DB-46A8-991E-5B586775F257}" name="Value" dataDxfId="4"/>
+    <tableColumn id="1" xr3:uid="{3DCEAD43-18B7-4F49-849D-6EF185847D39}" name="PCB Ident" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{964837BD-97E4-4937-A131-4D989F5E0477}" name="Block" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{3B3B4A6A-52E4-4D6D-946E-EB2ADEB4DA98}" name="Description" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{A3DC31E9-D5DB-46A8-991E-5B586775F257}" name="Value" dataDxfId="3"/>
     <tableColumn id="3" xr3:uid="{E45B8C85-EC40-4FB7-97C2-C2551E9D6E72}" name="JLC Name"/>
-    <tableColumn id="4" xr3:uid="{62DEBCF0-ADBC-4F79-8D70-279EC5CD1E80}" name="JLC Code" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{2F88679B-56FF-4224-83D3-A055215006AA}" name="Unit Cost" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{02553574-6C52-4D8B-A054-D75F996064BE}" name="Total Cost" dataDxfId="1">
+    <tableColumn id="4" xr3:uid="{62DEBCF0-ADBC-4F79-8D70-279EC5CD1E80}" name="JLC Code" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{2F88679B-56FF-4224-83D3-A055215006AA}" name="Unit Cost" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{02553574-6C52-4D8B-A054-D75F996064BE}" name="Total Cost" dataDxfId="0">
       <calculatedColumnFormula>3+(Table15[[#This Row],[Unit Cost]]*$M$7)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1944,22 +1997,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M95"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="110" workbookViewId="0">
-      <selection activeCell="K77" sqref="K77"/>
+    <sheetView zoomScale="110" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.53125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.796875" style="1" customWidth="1"/>
-    <col min="7" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="11.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="11.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1984,8 +2037,11 @@
       <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+      <c r="I1" s="1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>82</v>
       </c>
@@ -2018,7 +2074,7 @@
         <v>0.52950000000000008</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>83</v>
       </c>
@@ -2044,7 +2100,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>84</v>
       </c>
@@ -2070,13 +2126,13 @@
         <v>4.3E-3</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M4" s="1">
         <v>46.13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>85</v>
       </c>
@@ -2102,14 +2158,14 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="M5" s="1">
         <f>(M4*1.2)/1.25</f>
         <v>44.284800000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
@@ -2135,7 +2191,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
@@ -2161,13 +2217,13 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
@@ -2200,7 +2256,7 @@
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
@@ -2226,7 +2282,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
@@ -2252,7 +2308,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>37</v>
       </c>
@@ -2278,7 +2334,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>38</v>
       </c>
@@ -2304,7 +2360,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2330,7 +2386,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>40</v>
       </c>
@@ -2356,7 +2412,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>41</v>
       </c>
@@ -2382,7 +2438,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2464,7 @@
         <v>4.3E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>43</v>
       </c>
@@ -2434,7 +2490,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>44</v>
       </c>
@@ -2460,7 +2516,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>45</v>
       </c>
@@ -2486,7 +2542,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>46</v>
       </c>
@@ -2512,7 +2568,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>47</v>
       </c>
@@ -2538,7 +2594,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>48</v>
       </c>
@@ -2564,7 +2620,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>49</v>
       </c>
@@ -2590,7 +2646,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>50</v>
       </c>
@@ -2616,7 +2672,7 @@
         <v>5.4999999999999997E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>51</v>
       </c>
@@ -2642,7 +2698,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>52</v>
       </c>
@@ -2668,7 +2724,7 @@
         <v>6.8999999999999999E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>53</v>
       </c>
@@ -2694,7 +2750,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>54</v>
       </c>
@@ -2720,7 +2776,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>55</v>
       </c>
@@ -2746,7 +2802,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>56</v>
       </c>
@@ -2772,7 +2828,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>57</v>
       </c>
@@ -2798,7 +2854,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>58</v>
       </c>
@@ -2824,7 +2880,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>59</v>
       </c>
@@ -2850,7 +2906,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>60</v>
       </c>
@@ -2876,7 +2932,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>61</v>
       </c>
@@ -2902,7 +2958,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>62</v>
       </c>
@@ -2928,7 +2984,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>63</v>
       </c>
@@ -2954,7 +3010,7 @@
         <v>1.7399999999999999E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>64</v>
       </c>
@@ -2980,7 +3036,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
@@ -3006,7 +3062,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>66</v>
       </c>
@@ -3032,7 +3088,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>67</v>
       </c>
@@ -3058,7 +3114,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>68</v>
       </c>
@@ -3084,7 +3140,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>69</v>
       </c>
@@ -3110,7 +3166,7 @@
         <v>4.2200000000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>70</v>
       </c>
@@ -3136,7 +3192,7 @@
         <v>9.7000000000000003E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>71</v>
       </c>
@@ -3162,7 +3218,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>72</v>
       </c>
@@ -3188,7 +3244,7 @@
         <v>1.5599999999999999E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>73</v>
       </c>
@@ -3214,7 +3270,7 @@
         <v>1.18E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>91</v>
       </c>
@@ -3240,7 +3296,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>92</v>
       </c>
@@ -3266,7 +3322,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>93</v>
       </c>
@@ -3292,7 +3348,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>94</v>
       </c>
@@ -3318,7 +3374,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>95</v>
       </c>
@@ -3344,7 +3400,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>96</v>
       </c>
@@ -3370,7 +3426,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>97</v>
       </c>
@@ -3396,7 +3452,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>98</v>
       </c>
@@ -3422,7 +3478,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>99</v>
       </c>
@@ -3448,7 +3504,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
         <v>74</v>
       </c>
@@ -3474,7 +3530,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>75</v>
       </c>
@@ -3500,7 +3556,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
         <v>76</v>
       </c>
@@ -3526,7 +3582,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>77</v>
       </c>
@@ -3552,7 +3608,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>78</v>
       </c>
@@ -3578,7 +3634,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>79</v>
       </c>
@@ -3604,7 +3660,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>80</v>
       </c>
@@ -3630,7 +3686,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
@@ -3656,7 +3712,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="5" t="s">
         <v>170</v>
       </c>
@@ -3682,7 +3738,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="5" t="s">
         <v>171</v>
       </c>
@@ -3708,7 +3764,7 @@
         <v>1.32E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="5" t="s">
         <v>172</v>
       </c>
@@ -3734,7 +3790,7 @@
         <v>1.26E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="5" t="s">
         <v>173</v>
       </c>
@@ -3760,7 +3816,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="5" t="s">
         <v>174</v>
       </c>
@@ -3786,7 +3842,7 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="5" t="s">
         <v>175</v>
       </c>
@@ -3812,21 +3868,21 @@
         <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>25</v>
@@ -3835,21 +3891,21 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>25</v>
@@ -3858,78 +3914,78 @@
         <v>1.6400000000000001E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
     </row>
   </sheetData>
@@ -3946,23 +4002,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29EFD0D0-6010-4DE2-A740-5FED5A866A4A}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3991,10 +4047,10 @@
         <v>183</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4022,20 +4078,20 @@
         <v>3.5355555555555558</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table13[Optional], "n", Table13[Subtotal])</f>
-        <v>8.2155555555555573</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+        <v>21.225555555555559</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4062,20 +4118,20 @@
         <v>2.9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table13[Optional], "y", Table13[Subtotal])</f>
-        <v>43.87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+        <v>40.950000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4102,20 +4158,20 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L4" s="1">
         <f>JLC!M8</f>
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4142,13 +4198,13 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4175,20 +4231,20 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
-        <v>55.037875555555559</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+        <v>65.127875555555562</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4196,10 +4252,10 @@
         <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>11</v>
@@ -4215,19 +4271,19 @@
         <v>0.66</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="J7" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>189</v>
       </c>
@@ -4238,7 +4294,7 @@
         <v>191</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -4260,7 +4316,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>192</v>
       </c>
@@ -4268,10 +4324,10 @@
         <v>193</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>11</v>
@@ -4287,45 +4343,42 @@
         <v>2.4900000000000002</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="J9" s="6" t="s">
         <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L9" s="1">
         <f>L6*L7</f>
-        <v>55.037875555555559</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+        <v>65.127875555555562</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>194</v>
+        <v>244</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>196</v>
+        <v>245</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>195</v>
+        <v>246</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1">
-        <v>3.61</v>
+        <v>8.61</v>
       </c>
       <c r="G10" s="6">
         <v>1</v>
       </c>
-      <c r="H10" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>3.61</v>
-      </c>
+      <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
         <v>146</v>
       </c>
@@ -4333,32 +4386,29 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>197</v>
+        <v>247</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>198</v>
+        <v>248</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>249</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F11" s="1">
-        <v>5.08</v>
+        <v>1.97</v>
       </c>
       <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>5.08</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
         <v>146</v>
       </c>
@@ -4366,51 +4416,48 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>201</v>
+        <v>250</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>202</v>
+        <v>251</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="1">
-        <v>2.4900000000000002</v>
+        <v>2.88</v>
       </c>
       <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
-        <v>2.4900000000000002</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="J12" s="6" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>19</v>
@@ -4432,42 +4479,99 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5.26</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2</v>
+      </c>
+      <c r="H14" s="7">
+        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
+        <v>10.52</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F15" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1</v>
+      </c>
+      <c r="H15" s="7">
+        <f>Table13[[#This Row],[Unit Cost]]*Table13[[#This Row],[Quantity Required]]</f>
+        <v>10.75</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="H16" s="7"/>
       <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.5">
+      <c r="J16" s="6"/>
+    </row>
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4484,23 +4588,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29745244-347C-4E0C-82C7-873EDA6D4584}">
   <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.21875" style="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.86328125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="21.19921875" style="1" customWidth="1"/>
-    <col min="6" max="10" width="8.796875" style="1"/>
-    <col min="11" max="11" width="24.1328125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.796875" style="1"/>
+    <col min="3" max="3" width="26.88671875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="21.21875" style="1" customWidth="1"/>
+    <col min="6" max="10" width="8.77734375" style="1"/>
+    <col min="11" max="11" width="24.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4529,7 +4633,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -4557,17 +4661,17 @@
         <v>3.5355555555555558</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="L2" s="1">
         <f>SUMIF(Table134[Optional], "n", Table134[Subtotal])</f>
         <v>10.125555555555557</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
@@ -4594,17 +4698,17 @@
         <v>2.9</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="L3" s="1">
         <f>SUMIF(Table134[Optional], "y", Table134[Subtotal])</f>
         <v>0.87</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
@@ -4631,17 +4735,17 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="L4" s="1">
         <f>JLC!M8</f>
         <v>2.9523200000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>28</v>
       </c>
@@ -4668,10 +4772,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -4698,17 +4802,17 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="L6" s="1">
         <f>SUM(L2:L4)</f>
         <v>13.947875555555557</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>120</v>
       </c>
@@ -4735,27 +4839,27 @@
         <v>0.65</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="L7" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>19</v>
@@ -4771,21 +4875,21 @@
         <v>1.92</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>19</v>
@@ -4804,70 +4908,70 @@
         <v>146</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="L9" s="1">
         <f>L7*(L6+L4)</f>
         <v>101.40117333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="3"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="17" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="18" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="19" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="20" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="7:9" x14ac:dyDescent="0.5">
+    <row r="21" spans="7:9" x14ac:dyDescent="0.3">
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="6"/>
@@ -4888,20 +4992,20 @@
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.53125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="20.796875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.53125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.46484375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="11.5546875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="20.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="8.796875" style="1"/>
-    <col min="12" max="12" width="15.796875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.796875" style="1"/>
+    <col min="9" max="11" width="8.77734375" style="1"/>
+    <col min="12" max="12" width="15.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4924,25 +5028,25 @@
         <v>181</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.5">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="G2" s="1">
         <v>0.16830000000000001</v>
@@ -4952,29 +5056,29 @@
         <v>5.5244999999999997</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="M2" s="1">
         <f>SUM(Table15[Total Cost])</f>
         <v>91.119</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>26</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="1" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="G3" s="1">
         <v>0.20399999999999999</v>
@@ -4984,12 +5088,12 @@
         <v>6.06</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>194</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
         <v>196</v>
@@ -4999,7 +5103,7 @@
         <v>195</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="G4" s="1">
         <v>1.4025000000000001</v>
@@ -5009,22 +5113,22 @@
         <v>24.037500000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>192</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="G5" s="1">
         <v>3.1455000000000002</v>
@@ -5034,12 +5138,12 @@
         <v>50.182500000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -5049,7 +5153,7 @@
         <v>29</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="G6" s="1">
         <v>0.15429999999999999</v>
@@ -5059,18 +5163,18 @@
         <v>5.3144999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7"/>
       <c r="D7" s="4"/>
       <c r="L7" s="1" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="M7" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8"/>
       <c r="D8" s="4"/>
@@ -5082,364 +5186,364 @@
         <v>6.0746000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="C9"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="C11"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
       <c r="C13"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14"/>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="C15"/>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="C16"/>
       <c r="D16" s="4"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
       <c r="C17"/>
       <c r="D17" s="4"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18"/>
       <c r="D18" s="4"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="C19"/>
       <c r="D19" s="4"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
       <c r="C20"/>
       <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
       <c r="C21"/>
       <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="C22"/>
       <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="4"/>
       <c r="C23"/>
       <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="4"/>
       <c r="C24"/>
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25"/>
       <c r="D25" s="4"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="C26"/>
       <c r="D26" s="4"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="4"/>
       <c r="C27"/>
       <c r="D27" s="4"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="C28"/>
       <c r="D28" s="4"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29"/>
       <c r="D29" s="4"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="C30"/>
       <c r="D30" s="4"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="C31"/>
       <c r="D31" s="4"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="C32"/>
       <c r="D32" s="4"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33"/>
       <c r="D33" s="4"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="C34"/>
       <c r="D34" s="4"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="C35"/>
       <c r="D35" s="4"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="C36"/>
       <c r="D36" s="4"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="C37"/>
       <c r="D37" s="4"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="C38"/>
       <c r="D38" s="4"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="4"/>
       <c r="C39"/>
       <c r="D39" s="4"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="4"/>
       <c r="C40"/>
       <c r="D40" s="4"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="4"/>
       <c r="C41"/>
       <c r="D41" s="4"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="4"/>
       <c r="D42" s="4"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="4"/>
       <c r="D43" s="4"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="4"/>
       <c r="D44" s="4"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="4"/>
       <c r="D45" s="4"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="4"/>
       <c r="D46" s="4"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="4"/>
       <c r="D47" s="4"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="4"/>
       <c r="D48" s="4"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="4"/>
       <c r="D49" s="4"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="4"/>
       <c r="D50" s="4"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="4"/>
       <c r="D51" s="4"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="4"/>
       <c r="D52" s="4"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="4"/>
       <c r="D53" s="4"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="4"/>
       <c r="D54" s="4"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="4"/>
       <c r="D55" s="4"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="4"/>
       <c r="D56" s="4"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="4"/>
       <c r="D57" s="4"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="4"/>
       <c r="D58" s="4"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="4"/>
       <c r="D59" s="4"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="4"/>
       <c r="D60" s="4"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="4"/>
       <c r="D61" s="4"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="4"/>
       <c r="D62" s="4"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="4"/>
       <c r="D63" s="4"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="4"/>
       <c r="D64" s="4"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="5"/>
       <c r="D68" s="4"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="5"/>
       <c r="D69" s="4"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="5"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="5"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="5"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="4"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="4"/>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="4"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="4"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="4"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="4"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="4"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="4"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" s="4"/>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" s="4"/>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" s="4"/>
     </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" s="4"/>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" s="4"/>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A86" s="4"/>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A87" s="4"/>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A88" s="4"/>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A89" s="4"/>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A90" s="4"/>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A91" s="4"/>
     </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A92" s="4"/>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A93" s="4"/>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A94" s="4"/>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A95" s="4"/>
     </row>
   </sheetData>
